--- a/StatsAssessment#1.xlsx
+++ b/StatsAssessment#1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/galvanize/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/galvanize/Documents/assessments/stats_assessment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD82C439-7A91-4A45-95E6-CA2C4DA55D5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF2AC50C-2D8D-E64A-9762-34CB1ECCF72A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="22320" windowHeight="16420" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="22320" windowHeight="16420" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="4" r:id="rId1"/>
@@ -846,7 +846,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -924,7 +924,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44D588B7-A947-44D0-A527-0E0F3C3BE44A}">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView topLeftCell="B5" zoomScale="179" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="179" workbookViewId="0">
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
@@ -1497,7 +1497,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02480A5F-A7BB-4BA3-9662-0C9B1CED90E1}">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="175" workbookViewId="0">
+    <sheetView zoomScale="175" workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
@@ -1725,8 +1725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C40B86AC-CFBF-451B-A879-EA4454337D82}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="173" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" zoomScale="173" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1823,12 +1823,12 @@
         <v>475</v>
       </c>
       <c r="E15">
-        <f>C15/D15</f>
-        <v>0.36842105263157893</v>
+        <f>(175/375)*(175/475)</f>
+        <v>0.17192982456140349</v>
       </c>
       <c r="F15">
-        <f>C21/D15</f>
-        <v>0.63157894736842102</v>
+        <f>(300/425)*(300/475)</f>
+        <v>0.44582043343653249</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -1895,7 +1895,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9416435-ADBD-4B09-B570-4E8A5F03FAC6}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="163" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="163" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
